--- a/testdat/Winter_Appendix_data 2.xlsx
+++ b/testdat/Winter_Appendix_data 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11880" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11880" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STS data" sheetId="7" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="Sheet1" sheetId="12" r:id="rId6"/>
     <sheet name="norm walk" sheetId="9" r:id="rId7"/>
     <sheet name="fast walk" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>Torque 
 (normalized, Nm)</t>
@@ -3832,6 +3834,2682 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="280489080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>-0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.91</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13.12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-16.27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-17.55</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-16.64</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-10.48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6.91</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.81</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.34</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-479A-443B-AD80-8AB9512D1948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="445509800"/>
+        <c:axId val="445511440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="445509800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>% of Stride</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445511440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="445511440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Ankle Angle (deg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445509800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>104.85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>114.07499999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>115.125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>112.27500000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>102.675</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.85</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.424999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.67499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.67499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.67499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.67499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-7.4999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9045-4BF2-9A76-DBE88277B761}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="610031208"/>
+        <c:axId val="610033504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="610031208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>% of Stride</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610033504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="610033504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Ankle Torque (N-m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610031208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>-0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.91</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13.12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-16.27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-17.55</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-16.64</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-10.48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6.91</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.81</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.34</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B22F-4B3C-BF1E-2443704F6571}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="445509800"/>
+        <c:axId val="445511440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="445509800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>% of Stride</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445511440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="445511440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Ankle Angle (deg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445509800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>104.85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>114.07499999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>115.125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>112.27500000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>102.675</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.85</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.424999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.67499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.67499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.67499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.67499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-7.4999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E118-4C78-BA08-540E5ACF1860}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="610031208"/>
+        <c:axId val="610033504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="610031208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>% of Stride</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610033504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="610033504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Ankle Torque (N-m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610031208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9028,6 +11706,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11929,6 +14767,2070 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17127,6 +22029,168 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8A9893-923C-4634-A954-20776B341D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CB64C8-663B-4A28-8E8F-A3DE7AE1A211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C8C6F6-3B65-4438-84CE-35622C693D7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B714D200-A82F-433A-ADA4-08337FC25942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -26339,12 +31403,27 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990A8523-716B-4817-AB30-CDEF825DB5AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41472,7 +46551,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -41488,7 +46567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F636DE-38ED-4E40-825B-95DFDA27DF78}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
@@ -42500,7 +47579,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+      <selection activeCell="A3" sqref="A3:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43504,4 +48583,1014 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737200F8-6D11-4548-9BB7-7DC5D8F5A991}">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="5" width="15.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>A3/0.5</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="D3">
+        <v>-2E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E53" si="0">75*D3</f>
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B53" si="1">A4/0.5</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>-2.83</v>
+      </c>
+      <c r="D4">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>-5.27</v>
+      </c>
+      <c r="D5">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-4.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>-6.46</v>
+      </c>
+      <c r="D6">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-2.6999999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>-5.91</v>
+      </c>
+      <c r="D7">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.3250000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>-4.18</v>
+      </c>
+      <c r="D8">
+        <v>0.113</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8.4749999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>-2.19</v>
+      </c>
+      <c r="D9">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>15.299999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>-0.46</v>
+      </c>
+      <c r="D10">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>22.425000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>0.96</v>
+      </c>
+      <c r="D11">
+        <v>0.39</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>2.13</v>
+      </c>
+      <c r="D12">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>36.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>3.07</v>
+      </c>
+      <c r="D13">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>43.349999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>3.79</v>
+      </c>
+      <c r="D14">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>4.84</v>
+      </c>
+      <c r="D16">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>62.849999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>5.34</v>
+      </c>
+      <c r="D17">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>68.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>5.84</v>
+      </c>
+      <c r="D18">
+        <v>0.99</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>6.29</v>
+      </c>
+      <c r="D19">
+        <v>1.054</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>79.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>6.71</v>
+      </c>
+      <c r="D20">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>7.16</v>
+      </c>
+      <c r="D21">
+        <v>1.179</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>88.424999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>7.66</v>
+      </c>
+      <c r="D22">
+        <v>1.246</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>93.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>8.11</v>
+      </c>
+      <c r="D23">
+        <v>1.319</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>98.924999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>8.43</v>
+      </c>
+      <c r="D24">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>104.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>8.56</v>
+      </c>
+      <c r="D25">
+        <v>1.47</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>110.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="D26">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>114.07499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="D27">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>115.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>7.14</v>
+      </c>
+      <c r="D28">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>112.27500000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C29">
+        <v>5.55</v>
+      </c>
+      <c r="D29">
+        <v>1.369</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>102.675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>3.06</v>
+      </c>
+      <c r="D30">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>-0.34</v>
+      </c>
+      <c r="D31">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C32">
+        <v>-4.47</v>
+      </c>
+      <c r="D32">
+        <v>0.438</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>32.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <v>-8.91</v>
+      </c>
+      <c r="D33">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>13.424999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C34">
+        <v>-13.12</v>
+      </c>
+      <c r="D34">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <v>-16.27</v>
+      </c>
+      <c r="D35">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <v>-17.55</v>
+      </c>
+      <c r="D36">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>-1.125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C37">
+        <v>-16.64</v>
+      </c>
+      <c r="D37">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>-1.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C38">
+        <v>-14</v>
+      </c>
+      <c r="D38">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C39">
+        <v>-10.48</v>
+      </c>
+      <c r="D39">
+        <v>-0.01</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C40">
+        <v>-6.91</v>
+      </c>
+      <c r="D40">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>-0.67499999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C41">
+        <v>-3.81</v>
+      </c>
+      <c r="D41">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C42">
+        <v>-1.34</v>
+      </c>
+      <c r="D42">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>-0.67499999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C43">
+        <v>0.51</v>
+      </c>
+      <c r="D43">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>-0.67499999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C44">
+        <v>1.59</v>
+      </c>
+      <c r="D44">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>-0.67499999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C45">
+        <v>1.72</v>
+      </c>
+      <c r="D45">
+        <v>-0.01</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C46">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D46">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>-0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C47">
+        <v>0.25</v>
+      </c>
+      <c r="D47">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>-0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C48">
+        <v>-0.34</v>
+      </c>
+      <c r="D48">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>-0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C49">
+        <v>-0.45</v>
+      </c>
+      <c r="D49">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C50">
+        <v>-0.19</v>
+      </c>
+      <c r="D50">
+        <v>1E-3</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C51">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D51">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C52">
+        <v>0.04</v>
+      </c>
+      <c r="D52">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <v>-0.89</v>
+      </c>
+      <c r="D53">
+        <v>-1E-3</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>-7.4999999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>